--- a/ExplorerFund/NetValue/新征程基金记录11月10日.xlsx
+++ b/ExplorerFund/NetValue/新征程基金记录11月10日.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8370"/>
+    <workbookView windowWidth="15870" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>对应股份数</t>
   </si>
@@ -164,10 +164,13 @@
     <t>2017年11月10日BDY</t>
   </si>
   <si>
-    <t>提取10W</t>
-  </si>
-  <si>
-    <t>已经提取</t>
+    <t>提取基金分红10W</t>
+  </si>
+  <si>
+    <t>已提取发工资</t>
+  </si>
+  <si>
+    <t>2017年11月14日BDY</t>
   </si>
   <si>
     <t>基金入金</t>
@@ -313,12 +316,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.00000_ "/>
     <numFmt numFmtId="180" formatCode="#,##0.0000_ "/>
@@ -467,7 +470,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,15 +534,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,16 +549,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,22 +573,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -563,19 +597,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -584,27 +608,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -634,7 +637,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,109 +781,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,25 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,31 +811,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,6 +828,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -858,20 +879,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,21 +928,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -933,10 +936,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,7 +948,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -954,129 +957,129 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,9 +1278,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1335,9 +1335,6 @@
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1359,16 +1356,10 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1689,28 +1680,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="C39" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="22.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="68" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="68" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="68" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="69" customWidth="1"/>
-    <col min="11" max="11" width="14.25" style="69" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="69" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="69" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="69" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="67" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="67" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="67" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="68" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="68" customWidth="1"/>
+    <col min="12" max="12" width="14.375" style="68" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="68" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="68" customWidth="1"/>
     <col min="15" max="15" width="11.375" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
     <col min="17" max="17" width="13.5" customWidth="1"/>
@@ -1721,25 +1712,25 @@
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="25"/>
-      <c r="D1" s="70">
+      <c r="D1" s="69">
         <v>441660</v>
       </c>
-      <c r="E1" s="70">
+      <c r="E1" s="69">
         <v>1575000</v>
       </c>
-      <c r="F1" s="70">
+      <c r="F1" s="69">
         <v>2605123</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
     </row>
     <row r="2" customFormat="1" ht="26.5" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
@@ -1760,60 +1751,60 @@
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="68" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:8">
-      <c r="A3" s="72">
+      <c r="A3" s="71">
         <v>42958</v>
       </c>
       <c r="B3" s="5">
         <v>1607454</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="67">
         <v>2.06057</v>
       </c>
       <c r="E3" s="5">
         <v>1607454</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="67">
         <v>1.0206</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A4" s="72">
+      <c r="A4" s="71">
         <v>42961</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:B11" si="0">J4+K4+L4+M4+N4</f>
         <v>4654237</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="67">
         <v>0</v>
       </c>
       <c r="D4" s="5">
@@ -1826,40 +1817,40 @@
         <f>F1*I4</f>
         <v>2605123</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="67">
         <v>1</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="67">
         <v>1.0206</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="67">
         <v>1</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="68">
         <v>1109894</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="68">
         <v>1122560</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="68">
         <v>1100000</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="68">
         <v>1321783</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="68">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A5" s="72">
+      <c r="A5" s="71">
         <v>42968</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>4644224</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="67">
         <v>-0.21514</v>
       </c>
       <c r="D5" s="5">
@@ -1874,40 +1865,40 @@
         <f>F1*I5</f>
         <v>2599495.93432</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="67">
         <v>0.99784</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="67">
         <v>1.01835</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="67">
         <v>0.99784</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="68">
         <v>911613</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="68">
         <v>1110878</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="68">
         <v>1100000</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="68">
         <v>1321733</v>
       </c>
-      <c r="N5" s="69">
+      <c r="N5" s="68">
         <v>200000</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A6" s="72">
+      <c r="A6" s="71">
         <v>42972</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>4672762</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="67">
         <f t="shared" ref="C6:C9" si="1">(B6/B5-1)*100</f>
         <v>0.614483711379976</v>
       </c>
@@ -1922,40 +1913,40 @@
       <c r="F6" s="5">
         <v>2612381</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="67">
         <v>1.00398</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="67">
         <v>1.02664</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="67">
         <v>1.00278</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="68">
         <v>896728</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="68">
         <v>1156542</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="68">
         <v>1094068</v>
       </c>
-      <c r="M6" s="69">
+      <c r="M6" s="68">
         <v>1327747</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="68">
         <v>197677</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A7" s="72">
+      <c r="A7" s="71">
         <v>42979</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>4724717</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="67">
         <f t="shared" si="1"/>
         <v>1.11186916859878</v>
       </c>
@@ -1971,43 +1962,43 @@
         <f>I7*F1</f>
         <v>2632697.50052742</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="67">
         <f>(C7/100+1)*G6</f>
         <v>1.0151429440789</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="67">
         <f>E7/E1</f>
         <v>1.04360093129568</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="67">
         <f t="shared" ref="I7:I13" si="3">I6*(C7*0.7/100+1)</f>
         <v>1.01058472115421</v>
       </c>
-      <c r="J7" s="69">
+      <c r="J7" s="68">
         <v>897943</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="68">
         <v>1181473</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="68">
         <v>1115269</v>
       </c>
-      <c r="M7" s="69">
+      <c r="M7" s="68">
         <v>1330348</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="68">
         <v>199684</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A8" s="72">
+      <c r="A8" s="71">
         <v>42986</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4733439</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="72">
         <v>0.1846</v>
       </c>
       <c r="D8" s="5">
@@ -2022,42 +2013,42 @@
         <f>I8*F1</f>
         <v>2636099.47223761</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="67">
         <v>1.017015</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="67">
         <f>E8/E1</f>
         <v>1.04645376689676</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="67">
         <f t="shared" si="3"/>
         <v>1.01189059873089</v>
       </c>
-      <c r="J8" s="91">
+      <c r="J8" s="89">
         <v>902123</v>
       </c>
-      <c r="K8" s="91">
+      <c r="K8" s="89">
         <v>1182482</v>
       </c>
-      <c r="L8" s="91">
+      <c r="L8" s="89">
         <v>1120011</v>
       </c>
-      <c r="M8" s="91">
+      <c r="M8" s="89">
         <v>1327439</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="68">
         <v>201384</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A9" s="72">
+      <c r="A9" s="71">
         <v>43000</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>4742898</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="67">
         <f>(B9/B8-1)*100</f>
         <v>0.19983356709572</v>
       </c>
@@ -2073,43 +2064,43 @@
         <f>I9*F1</f>
         <v>2639786.9403629</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="67">
         <f t="shared" ref="G9:G15" si="4">(C9/100+1)*G8</f>
         <v>1.0190473373524</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="67">
         <f>E9/E1</f>
         <v>1.04954832547431</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="67">
         <f t="shared" si="3"/>
         <v>1.01330606668587</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="68">
         <v>910526</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="68">
         <v>1113398</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="68">
         <v>1194913</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="68">
         <v>1317655</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="68">
         <v>206406</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A10" s="72">
+      <c r="A10" s="71">
         <v>43007</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>4773357</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="67">
         <f>(B10/B9-1)*100</f>
         <v>0.64220229910068</v>
       </c>
@@ -2125,43 +2116,43 @@
         <f>I10*F1</f>
         <v>2651653.88105856</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="67">
         <f t="shared" si="4"/>
         <v>1.0255916827818</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="67">
         <f>E10/E1</f>
         <v>1.0595176484597</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="67">
         <f t="shared" si="3"/>
         <v>1.0178612990859</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="68">
         <v>912676</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="68">
         <v>1210836</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="68">
         <v>1131574</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="68">
         <v>1314090</v>
       </c>
-      <c r="N10" s="69">
+      <c r="N10" s="68">
         <v>204181</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:15">
-      <c r="A11" s="72">
+      <c r="A11" s="71">
         <v>43021</v>
       </c>
       <c r="B11" s="5">
         <f>J11+K11+L11+M11+N11+O11</f>
         <v>4866266</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="67">
         <f>(B11/B10-1)*100</f>
         <v>1.94640794727903</v>
       </c>
@@ -2177,46 +2168,46 @@
         <f>I11*F1</f>
         <v>2687782.28237124</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="67">
         <f t="shared" si="4"/>
         <v>1.0455538808021</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="67">
         <f>E11/E1</f>
         <v>1.08997104167219</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="67">
         <f t="shared" si="3"/>
         <v>1.03172951233828</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="68">
         <v>930509</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="68">
         <v>1234528</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="68">
         <v>969743</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="68">
         <v>775396</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="68">
         <v>206639</v>
       </c>
-      <c r="O11" s="69">
+      <c r="O11" s="68">
         <v>749451</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="1:15">
-      <c r="A12" s="72">
+      <c r="A12" s="71">
         <v>43027</v>
       </c>
       <c r="B12" s="5">
         <f>J12+K12+L12+M12+N12+O12</f>
         <v>4983258</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="67">
         <f>(B12/B11-1)*100</f>
         <v>2.40414313561978</v>
       </c>
@@ -2232,34 +2223,34 @@
         <f>I12*F1</f>
         <v>2733014.97564066</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="67">
         <f t="shared" si="4"/>
         <v>1.07069049265661</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="67">
         <f>E12/E1</f>
         <v>1.12848372150643</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="67">
         <f t="shared" si="3"/>
         <v>1.04909249031261</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="68">
         <v>929832</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="68">
         <v>1304092</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="68">
         <v>997065</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="68">
         <v>781127</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="68">
         <v>207370</v>
       </c>
-      <c r="O12" s="69">
+      <c r="O12" s="68">
         <v>763772</v>
       </c>
     </row>
@@ -2267,53 +2258,53 @@
       <c r="A13" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="73">
         <v>-300000</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="75">
+      <c r="E13" s="74">
         <v>1.04909</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="75">
         <v>-285962.12</v>
       </c>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="75">
         <f>F1+G13</f>
         <v>2319160.88</v>
       </c>
-      <c r="J13" s="92" t="s">
+      <c r="J13" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="92">
+      <c r="K13" s="90">
         <f>F12+C13</f>
         <v>2433014.97564066</v>
       </c>
-      <c r="L13" s="92" t="s">
+      <c r="L13" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
     </row>
     <row r="14" customFormat="1" ht="16.5" customHeight="1" spans="1:15">
-      <c r="A14" s="72">
+      <c r="A14" s="71">
         <v>43027</v>
       </c>
       <c r="B14" s="5">
         <f>J14+K14+L14+M14+N14+O14</f>
         <v>4683258</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="67">
         <v>2.40414</v>
       </c>
       <c r="D14" s="5">
@@ -2325,43 +2316,43 @@
       <c r="F14" s="5">
         <v>2433015</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="67">
         <v>1.07069</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="67">
         <v>1.12848</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="67">
         <v>1.04909</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="68">
         <v>629832</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="68">
         <v>1304092</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="68">
         <v>997065</v>
       </c>
-      <c r="M14" s="69">
+      <c r="M14" s="68">
         <v>781127</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="68">
         <v>207370</v>
       </c>
-      <c r="O14" s="69">
+      <c r="O14" s="68">
         <v>763772</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="72">
+      <c r="A15" s="71">
         <v>43032</v>
       </c>
       <c r="B15" s="5">
         <f>J15+K15+L15+M15+N15+O15</f>
         <v>4766130</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="67">
         <f>(B15/B14-1)*100</f>
         <v>1.76953736052978</v>
       </c>
@@ -2377,34 +2368,34 @@
         <f>I15*I13</f>
         <v>2463151.43049478</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="67">
         <f>(C15/100+1)*G12</f>
         <v>1.08963676093981</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="67">
         <f>E15/E1</f>
         <v>1.15665371280542</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="67">
         <f>I12*(C15*0.7/100+1)</f>
         <v>1.06208734880643</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="68">
         <v>631858</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="68">
         <v>1360932</v>
       </c>
-      <c r="L15" s="69">
+      <c r="L15" s="68">
         <v>1018561</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="68">
         <v>783471</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="68">
         <v>208262</v>
       </c>
-      <c r="O15" s="69">
+      <c r="O15" s="68">
         <v>763046</v>
       </c>
     </row>
@@ -2412,194 +2403,194 @@
       <c r="A16" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="73">
         <v>1600000</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="75">
+      <c r="E16" s="74">
         <v>1.06209</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="75">
         <f t="shared" ref="G16:G19" si="5">C16/E16</f>
         <v>1506463.67068704</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="75">
         <f>I13+G16</f>
         <v>3825624.55068704</v>
       </c>
-      <c r="J16" s="92" t="s">
+      <c r="J16" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="92">
+      <c r="K16" s="90">
         <f>F15+C16</f>
         <v>4063151.43049478</v>
       </c>
-      <c r="L16" s="92" t="s">
+      <c r="L16" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
     </row>
     <row r="17" s="64" customFormat="1" ht="19" customHeight="1" spans="1:14">
       <c r="A17" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="73">
         <v>500000</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="75">
+      <c r="E17" s="74">
         <v>1.06209</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="75">
         <f t="shared" si="5"/>
         <v>470769.897089701</v>
       </c>
-      <c r="H17" s="77" t="s">
+      <c r="H17" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="75">
         <f>4296394.45</f>
         <v>4296394.45</v>
       </c>
-      <c r="J17" s="92" t="s">
+      <c r="J17" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="92">
+      <c r="K17" s="90">
         <f t="shared" ref="K17:K19" si="6">K16+C17</f>
         <v>4563151.43049478</v>
       </c>
-      <c r="L17" s="92" t="s">
+      <c r="L17" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
     </row>
     <row r="18" s="64" customFormat="1" ht="19" customHeight="1" spans="1:14">
       <c r="A18" s="65"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74">
+      <c r="B18" s="73"/>
+      <c r="C18" s="73">
         <v>250000</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="74">
         <v>1.06209</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="75">
         <f t="shared" si="5"/>
         <v>235384.94854485</v>
       </c>
-      <c r="H18" s="77" t="s">
+      <c r="H18" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="75">
         <f>G18+I17</f>
         <v>4531779.39854485</v>
       </c>
-      <c r="J18" s="92" t="s">
+      <c r="J18" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="92">
+      <c r="K18" s="90">
         <f t="shared" si="6"/>
         <v>4813151.43049478</v>
       </c>
-      <c r="L18" s="92" t="s">
+      <c r="L18" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
     </row>
     <row r="19" s="64" customFormat="1" ht="19" customHeight="1" spans="1:14">
       <c r="A19" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="73">
         <v>200000</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="75">
+      <c r="E19" s="74">
         <v>1.06209</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="75">
         <f t="shared" si="5"/>
         <v>188307.95883588</v>
       </c>
-      <c r="H19" s="77" t="s">
+      <c r="H19" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="75">
         <f>G19+I18</f>
         <v>4720087.35738073</v>
       </c>
-      <c r="J19" s="92" t="s">
+      <c r="J19" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="92">
+      <c r="K19" s="90">
         <f t="shared" si="6"/>
         <v>5013151.43049478</v>
       </c>
-      <c r="L19" s="92" t="s">
+      <c r="L19" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
     </row>
     <row r="20" s="64" customFormat="1" ht="27" customHeight="1" spans="1:14">
       <c r="A20" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="70"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="70">
+      <c r="D20" s="69">
         <v>441660</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="69">
         <v>1575000</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="77">
         <f>4720087.36</f>
         <v>4720087.36</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
     </row>
     <row r="21" customFormat="1" ht="26.5" customHeight="1" spans="1:15">
       <c r="A21" s="2" t="s">
@@ -2620,36 +2611,36 @@
       <c r="F21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="68" t="s">
+      <c r="H21" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="68" t="s">
+      <c r="I21" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="69" t="s">
+      <c r="J21" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="69" t="s">
+      <c r="K21" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="69" t="s">
+      <c r="L21" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="69" t="s">
+      <c r="M21" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="69" t="s">
+      <c r="N21" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="69" t="s">
+      <c r="O21" s="68" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="72">
+      <c r="A22" s="71">
         <v>43033</v>
       </c>
       <c r="B22" s="5">
@@ -2662,16 +2653,16 @@
       <c r="E22" s="5">
         <v>1821730</v>
       </c>
-      <c r="F22" s="79">
+      <c r="F22" s="78">
         <v>5013151</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="67">
         <v>1.08964</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="67">
         <v>1.15665</v>
       </c>
-      <c r="I22" s="68">
+      <c r="I22" s="67">
         <v>1.06209</v>
       </c>
       <c r="J22" s="5">
@@ -2694,14 +2685,14 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="80">
+      <c r="A23" s="79">
         <v>43034</v>
       </c>
       <c r="B23" s="5">
         <f>J23+K23+L23+M23+N23+O23</f>
         <v>7609756</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="80">
         <f>(B23/B22-1)*100</f>
         <v>4.01340599469939</v>
       </c>
@@ -2717,15 +2708,15 @@
         <f>F20*I23</f>
         <v>5153996.44108751</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="67">
         <f>(C23/100+1)*G22</f>
         <v>1.13337167708064</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="67">
         <f>E23/E20</f>
         <v>1.24139341207178</v>
       </c>
-      <c r="I23" s="68">
+      <c r="I23" s="67">
         <f>(C23*0.7/100+1)*I22</f>
         <v>1.09192818861037</v>
       </c>
@@ -2752,154 +2743,154 @@
       <c r="A24" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="81">
         <v>300000</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="75">
+      <c r="E24" s="74">
         <v>1.09193</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="75">
         <f>C24/E24</f>
         <v>274742.886448765</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="H24" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="76">
+      <c r="I24" s="75">
         <f>I19+G24</f>
         <v>4994830.2438295</v>
       </c>
-      <c r="J24" s="92" t="s">
+      <c r="J24" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="92">
+      <c r="K24" s="90">
         <f>F23+C24</f>
         <v>5453996.44108751</v>
       </c>
-      <c r="L24" s="92" t="s">
+      <c r="L24" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
     </row>
     <row r="25" s="64" customFormat="1" ht="19" customHeight="1" spans="1:14">
       <c r="A25" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="82">
+      <c r="C25" s="81">
         <v>432358</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="75">
+      <c r="E25" s="74">
         <v>1.09193</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="75">
         <f>C25/E25</f>
         <v>395957.616330717</v>
       </c>
-      <c r="H25" s="77" t="s">
+      <c r="H25" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="76">
+      <c r="I25" s="75">
         <f>G25+I24</f>
         <v>5390787.86016021</v>
       </c>
-      <c r="J25" s="92" t="s">
+      <c r="J25" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="92">
+      <c r="K25" s="90">
         <f>K24+C25</f>
         <v>5886354.44108751</v>
       </c>
-      <c r="L25" s="92" t="s">
+      <c r="L25" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
     </row>
     <row r="26" s="65" customFormat="1" spans="1:14">
       <c r="A26" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="83">
+      <c r="C26" s="82">
         <v>315777</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="75">
+      <c r="E26" s="74">
         <v>1.09193</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="83">
         <f>C26/E26</f>
         <v>289191.614847106</v>
       </c>
-      <c r="H26" s="77" t="s">
+      <c r="H26" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="76">
+      <c r="I26" s="75">
         <f>G26+I25</f>
         <v>5679979.47500732</v>
       </c>
-      <c r="J26" s="74" t="s">
+      <c r="J26" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="74">
+      <c r="K26" s="73">
         <f>K25+C26</f>
         <v>6202131.44108751</v>
       </c>
-      <c r="L26" s="74" t="s">
+      <c r="L26" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
     </row>
     <row r="27" s="64" customFormat="1" ht="27" customHeight="1" spans="1:14">
       <c r="A27" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="70"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="70">
+      <c r="D27" s="69">
         <v>441660</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="69">
         <v>1575000</v>
       </c>
-      <c r="F27" s="78">
+      <c r="F27" s="77">
         <v>5679979.48</v>
       </c>
-      <c r="G27" s="76"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
     </row>
     <row r="28" customFormat="1" ht="26.5" customHeight="1" spans="1:17">
       <c r="A28" s="2" t="s">
@@ -2920,31 +2911,31 @@
       <c r="F28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="68" t="s">
+      <c r="I28" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="69" t="s">
+      <c r="J28" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="69" t="s">
+      <c r="K28" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="69" t="s">
+      <c r="L28" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="69" t="s">
+      <c r="M28" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="69" t="s">
+      <c r="N28" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="O28" s="69" t="s">
+      <c r="O28" s="68" t="s">
         <v>15</v>
       </c>
       <c r="P28" t="s">
@@ -2955,31 +2946,31 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="80">
+      <c r="A29" s="79">
         <v>43034</v>
       </c>
       <c r="B29" s="5">
         <f>J29+K29+L29+M29+N29+O29+P29</f>
         <v>8657891</v>
       </c>
-      <c r="C29" s="81"/>
+      <c r="C29" s="80"/>
       <c r="D29" s="5">
         <v>500565</v>
       </c>
       <c r="E29" s="5">
         <v>1955195</v>
       </c>
-      <c r="F29" s="79">
+      <c r="F29" s="78">
         <v>6202131</v>
       </c>
-      <c r="G29" s="68">
+      <c r="G29" s="67">
         <v>1.13337</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="67">
         <f>E29/E27</f>
         <v>1.24139365079365</v>
       </c>
-      <c r="I29" s="68">
+      <c r="I29" s="67">
         <v>1.09193</v>
       </c>
       <c r="J29" s="5">
@@ -3008,71 +2999,71 @@
       <c r="A30" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="83">
+      <c r="C30" s="82">
         <v>300000</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="75">
+      <c r="E30" s="74">
         <v>1.09193</v>
       </c>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="83">
         <f>C30/E30</f>
         <v>274742.886448765</v>
       </c>
-      <c r="H30" s="77" t="s">
+      <c r="H30" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="76">
+      <c r="I30" s="75">
         <f>G30+I26</f>
         <v>5954722.36145608</v>
       </c>
-      <c r="J30" s="74" t="s">
+      <c r="J30" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="74">
+      <c r="K30" s="73">
         <f>K26+C30</f>
         <v>6502131.44108751</v>
       </c>
-      <c r="L30" s="74" t="s">
+      <c r="L30" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="80">
+      <c r="A31" s="79">
         <v>43035</v>
       </c>
       <c r="B31" s="5">
         <f>J31+K31+L31+M31+N31+O31+P31</f>
         <v>8957891</v>
       </c>
-      <c r="C31" s="81"/>
+      <c r="C31" s="80"/>
       <c r="D31" s="5">
         <v>500565</v>
       </c>
       <c r="E31" s="5">
         <v>1955195</v>
       </c>
-      <c r="F31" s="79">
+      <c r="F31" s="78">
         <v>6502131</v>
       </c>
-      <c r="G31" s="68">
+      <c r="G31" s="67">
         <v>1.13337</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="67">
         <f>1.24139</f>
         <v>1.24139</v>
       </c>
-      <c r="I31" s="68">
+      <c r="I31" s="67">
         <v>1.09193</v>
       </c>
       <c r="J31" s="5">
@@ -3101,68 +3092,68 @@
       <c r="A32" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="83">
+      <c r="C32" s="82">
         <v>200000</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="75">
+      <c r="E32" s="74">
         <v>1.09193</v>
       </c>
-      <c r="F32" s="74" t="s">
+      <c r="F32" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="84">
+      <c r="G32" s="83">
         <f>C32/E32</f>
         <v>183161.924299177</v>
       </c>
-      <c r="H32" s="77" t="s">
+      <c r="H32" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="76">
+      <c r="I32" s="75">
         <f>G32+I30</f>
         <v>6137884.28575526</v>
       </c>
-      <c r="J32" s="74" t="s">
+      <c r="J32" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="74">
+      <c r="K32" s="73">
         <f>K30+C32</f>
         <v>6702131.44108751</v>
       </c>
-      <c r="L32" s="74" t="s">
+      <c r="L32" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
     </row>
     <row r="33" s="64" customFormat="1" ht="27" customHeight="1" spans="1:14">
       <c r="A33" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="70"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="70">
+      <c r="D33" s="69">
         <v>441660</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="69">
         <v>1575000</v>
       </c>
-      <c r="F33" s="78">
+      <c r="F33" s="77">
         <v>6137884.29</v>
       </c>
-      <c r="G33" s="76"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
     </row>
     <row r="34" customFormat="1" ht="26.5" customHeight="1" spans="1:17">
       <c r="A34" s="2" t="s">
@@ -3183,31 +3174,31 @@
       <c r="F34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="68" t="s">
+      <c r="G34" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="68" t="s">
+      <c r="H34" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="68" t="s">
+      <c r="I34" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="69" t="s">
+      <c r="J34" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K34" s="69" t="s">
+      <c r="K34" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="69" t="s">
+      <c r="L34" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="69" t="s">
+      <c r="M34" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N34" s="69" t="s">
+      <c r="N34" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="O34" s="69" t="s">
+      <c r="O34" s="68" t="s">
         <v>15</v>
       </c>
       <c r="P34" t="s">
@@ -3218,14 +3209,14 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="80">
+      <c r="A35" s="79">
         <v>43038</v>
       </c>
       <c r="B35" s="5">
         <f>J35+K35+L35+M35+N35+O35+P35+Q35</f>
         <v>9157891</v>
       </c>
-      <c r="C35" s="81">
+      <c r="C35" s="80">
         <v>4.01341</v>
       </c>
       <c r="D35" s="5">
@@ -3234,17 +3225,17 @@
       <c r="E35" s="5">
         <v>1955195</v>
       </c>
-      <c r="F35" s="79">
+      <c r="F35" s="78">
         <v>6702131</v>
       </c>
-      <c r="G35" s="68">
+      <c r="G35" s="67">
         <v>1.13337</v>
       </c>
-      <c r="H35" s="68">
+      <c r="H35" s="67">
         <f>1.24139</f>
         <v>1.24139</v>
       </c>
-      <c r="I35" s="68">
+      <c r="I35" s="67">
         <v>1.09193</v>
       </c>
       <c r="J35" s="5">
@@ -3273,14 +3264,14 @@
       </c>
     </row>
     <row r="36" s="5" customFormat="1" spans="1:17">
-      <c r="A36" s="80">
+      <c r="A36" s="79">
         <v>43041</v>
       </c>
       <c r="B36" s="5">
         <f>J36+K36+L36+M36+N36+O36+P36+Q36</f>
         <v>9510656</v>
       </c>
-      <c r="C36" s="85">
+      <c r="C36" s="84">
         <v>3.85203</v>
       </c>
       <c r="D36" s="5">
@@ -3295,15 +3286,15 @@
         <f>I36*F33</f>
         <v>6882857.90299441</v>
       </c>
-      <c r="G36" s="68">
+      <c r="G36" s="67">
         <f>(C36/100+1)*G35</f>
         <v>1.177027752411</v>
       </c>
-      <c r="H36" s="85">
+      <c r="H36" s="84">
         <f>E36/E33</f>
         <v>1.33838223484174</v>
       </c>
-      <c r="I36" s="68">
+      <c r="I36" s="67">
         <f>(C36*0.7/100+1)*I35</f>
         <v>1.1213730298253</v>
       </c>
@@ -3313,7 +3304,7 @@
       <c r="K36" s="5">
         <v>2885517</v>
       </c>
-      <c r="L36" s="93">
+      <c r="L36" s="91">
         <v>2749332</v>
       </c>
       <c r="M36" s="5">
@@ -3325,7 +3316,7 @@
       <c r="O36" s="5">
         <v>100455</v>
       </c>
-      <c r="P36" s="93">
+      <c r="P36" s="91">
         <v>1153454</v>
       </c>
       <c r="Q36" s="5">
@@ -3336,112 +3327,112 @@
       <c r="A37" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="83">
+      <c r="C37" s="82">
         <v>473213</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="75">
+      <c r="E37" s="74">
         <f>1.33838</f>
         <v>1.33838</v>
       </c>
-      <c r="F37" s="74" t="s">
+      <c r="F37" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="84">
+      <c r="G37" s="83">
         <f>C37/E37</f>
         <v>353571.481940854</v>
       </c>
-      <c r="H37" s="77" t="s">
+      <c r="H37" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="76">
+      <c r="I37" s="75">
         <f>G37+E33</f>
         <v>1928571.48194085</v>
       </c>
-      <c r="J37" s="74" t="s">
+      <c r="J37" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="74">
+      <c r="K37" s="73">
         <f>E36+C37</f>
         <v>2581165.01987575</v>
       </c>
-      <c r="L37" s="74" t="s">
+      <c r="L37" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
     </row>
     <row r="38" s="65" customFormat="1" spans="1:14">
       <c r="A38" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="83">
+      <c r="C38" s="82">
         <v>100000</v>
       </c>
-      <c r="D38" s="74" t="s">
+      <c r="D38" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="67">
         <v>1.12137</v>
       </c>
-      <c r="F38" s="74" t="s">
+      <c r="F38" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="84">
+      <c r="G38" s="83">
         <f>C38/E38</f>
         <v>89176.63215531</v>
       </c>
-      <c r="H38" s="77" t="s">
+      <c r="H38" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="76">
+      <c r="I38" s="75">
         <f>G38+F33</f>
         <v>6227060.92215531</v>
       </c>
-      <c r="J38" s="74" t="s">
+      <c r="J38" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="74">
+      <c r="K38" s="73">
         <f>C38+F36</f>
         <v>6982857.90299441</v>
       </c>
-      <c r="L38" s="74" t="s">
+      <c r="L38" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
     </row>
     <row r="39" s="64" customFormat="1" ht="27" customHeight="1" spans="1:14">
       <c r="A39" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="70"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="25"/>
-      <c r="D39" s="70">
+      <c r="D39" s="69">
         <v>441660</v>
       </c>
       <c r="E39" s="27">
         <v>1928571</v>
       </c>
-      <c r="F39" s="78">
+      <c r="F39" s="77">
         <v>6227060.92</v>
       </c>
-      <c r="G39" s="76"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
     </row>
     <row r="40" customFormat="1" ht="26.5" customHeight="1" spans="1:18">
       <c r="A40" s="2" t="s">
@@ -3462,34 +3453,34 @@
       <c r="F40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="68" t="s">
+      <c r="G40" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="68" t="s">
+      <c r="H40" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="68" t="s">
+      <c r="I40" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="68" t="s">
+      <c r="J40" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="69" t="s">
+      <c r="K40" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="69" t="s">
+      <c r="L40" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="M40" s="69" t="s">
+      <c r="M40" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="69" t="s">
+      <c r="N40" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="O40" s="69" t="s">
+      <c r="O40" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="P40" s="69" t="s">
+      <c r="P40" s="68" t="s">
         <v>15</v>
       </c>
       <c r="Q40" t="s">
@@ -3500,13 +3491,13 @@
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="80">
+      <c r="A41" s="79">
         <v>43044</v>
       </c>
       <c r="B41" s="5">
         <v>10083869</v>
       </c>
-      <c r="C41" s="81"/>
+      <c r="C41" s="80"/>
       <c r="D41" s="5">
         <v>500565</v>
       </c>
@@ -3516,15 +3507,14 @@
       <c r="F41" s="5">
         <v>6982858</v>
       </c>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68">
+      <c r="H41" s="67">
         <v>1.17703</v>
       </c>
-      <c r="I41" s="68">
+      <c r="I41" s="67">
         <f>1.33838</f>
         <v>1.33838</v>
       </c>
-      <c r="J41" s="68">
+      <c r="J41" s="67">
         <v>1.12137</v>
       </c>
       <c r="K41" s="5">
@@ -3533,7 +3523,7 @@
       <c r="L41" s="5">
         <v>2885517</v>
       </c>
-      <c r="M41" s="93">
+      <c r="M41" s="91">
         <v>2999332</v>
       </c>
       <c r="N41" s="5">
@@ -3545,157 +3535,157 @@
       <c r="P41" s="5">
         <v>100455</v>
       </c>
-      <c r="Q41" s="93">
+      <c r="Q41" s="91">
         <v>1478454</v>
       </c>
       <c r="R41" s="5">
         <v>102547</v>
       </c>
     </row>
-    <row r="42" s="66" customFormat="1" spans="1:18">
-      <c r="A42" s="80">
+    <row r="42" s="2" customFormat="1" spans="1:18">
+      <c r="A42" s="79">
         <v>43049</v>
       </c>
       <c r="B42" s="5">
         <f>K42+L42+M42+N42+O42+P42+Q42+R42</f>
         <v>10843035</v>
       </c>
-      <c r="C42" s="81">
+      <c r="C42" s="80">
         <v>7.52852</v>
       </c>
-      <c r="D42" s="86">
+      <c r="D42" s="5">
         <f>D39*H42</f>
-        <v>558983.855550766</v>
-      </c>
-      <c r="E42" s="86">
+        <v>558983.855550765</v>
+      </c>
+      <c r="E42" s="5">
         <f>B42-F42-D42-G42</f>
         <v>2833218.72309754</v>
       </c>
-      <c r="F42" s="86">
+      <c r="F42" s="5">
         <f>F39*J42</f>
         <v>7350832.42135169</v>
       </c>
       <c r="G42" s="5">
         <v>100000</v>
       </c>
-      <c r="H42" s="68">
+      <c r="H42" s="67">
         <f>B42*H41/B41</f>
         <v>1.26564292793272</v>
       </c>
-      <c r="I42" s="94">
+      <c r="I42" s="67">
         <f>E42/E39</f>
         <v>1.46907670140096</v>
       </c>
-      <c r="J42" s="68">
+      <c r="J42" s="67">
         <f>(C42*0.7/100+1)*J41</f>
         <v>1.1804657953068</v>
       </c>
-      <c r="K42" s="86">
+      <c r="K42" s="5">
         <v>1745314</v>
       </c>
-      <c r="L42" s="86">
+      <c r="L42" s="5">
         <v>3073475</v>
       </c>
-      <c r="M42" s="86">
+      <c r="M42" s="5">
         <v>3204854</v>
       </c>
-      <c r="N42" s="86">
+      <c r="N42" s="5">
         <v>778729</v>
       </c>
-      <c r="O42" s="86">
+      <c r="O42" s="5">
         <v>181234</v>
       </c>
-      <c r="P42" s="86">
+      <c r="P42" s="5">
         <v>100455</v>
       </c>
-      <c r="Q42" s="86">
+      <c r="Q42" s="5">
         <v>1657819</v>
       </c>
-      <c r="R42" s="86">
+      <c r="R42" s="5">
         <v>101155</v>
       </c>
     </row>
-    <row r="43" s="67" customFormat="1" spans="2:14">
-      <c r="B43" s="79"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
+    <row r="43" s="66" customFormat="1" spans="2:14">
+      <c r="B43" s="78"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
     </row>
     <row r="44" s="65" customFormat="1" spans="1:14">
       <c r="A44" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="83">
+      <c r="C44" s="82">
         <v>400000</v>
       </c>
-      <c r="D44" s="74" t="s">
+      <c r="D44" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="68">
+      <c r="E44" s="67">
         <v>1.18047</v>
       </c>
-      <c r="F44" s="74" t="s">
+      <c r="F44" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="84">
+      <c r="G44" s="83">
         <f>C44/E44</f>
         <v>338848.085931875</v>
       </c>
-      <c r="H44" s="77" t="s">
+      <c r="H44" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="76">
+      <c r="I44" s="75">
         <f>G44+F39</f>
         <v>6565909.00593187</v>
       </c>
-      <c r="J44" s="74" t="s">
+      <c r="J44" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="74">
+      <c r="K44" s="73">
         <f>C44+F42</f>
         <v>7750832.42135169</v>
       </c>
-      <c r="L44" s="74" t="s">
+      <c r="L44" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
     </row>
     <row r="45" s="64" customFormat="1" ht="27" customHeight="1" spans="1:14">
       <c r="A45" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="70"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="70">
+      <c r="D45" s="69">
         <v>441660</v>
       </c>
       <c r="E45" s="27">
         <v>1928571</v>
       </c>
-      <c r="F45" s="76">
+      <c r="F45" s="77">
         <v>6565909.01</v>
       </c>
-      <c r="G45" s="76"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="90"/>
     </row>
     <row r="46" customFormat="1" ht="26.5" customHeight="1" spans="1:18">
       <c r="A46" s="2" t="s">
@@ -3716,34 +3706,34 @@
       <c r="F46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="68" t="s">
+      <c r="G46" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="H46" s="68" t="s">
+      <c r="H46" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="68" t="s">
+      <c r="I46" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="68" t="s">
+      <c r="J46" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="69" t="s">
+      <c r="K46" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L46" s="69" t="s">
+      <c r="L46" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="M46" s="69" t="s">
+      <c r="M46" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="N46" s="69" t="s">
+      <c r="N46" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="O46" s="69" t="s">
+      <c r="O46" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="P46" s="69" t="s">
+      <c r="P46" s="68" t="s">
         <v>15</v>
       </c>
       <c r="Q46" t="s">
@@ -3753,58 +3743,58 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" s="66" customFormat="1" spans="1:18">
-      <c r="A47" s="80">
+    <row r="47" s="2" customFormat="1" spans="1:18">
+      <c r="A47" s="79">
         <v>43049</v>
       </c>
       <c r="B47" s="5">
-        <f>K47+L47+M47+N47+O47+P47+Q47+R47</f>
+        <f t="shared" ref="B47:B50" si="7">K47+L47+M47+N47+O47+P47+Q47+R47</f>
         <v>11243035</v>
       </c>
-      <c r="C47" s="81"/>
-      <c r="D47" s="86">
+      <c r="C47" s="80"/>
+      <c r="D47" s="5">
         <v>558984</v>
       </c>
-      <c r="E47" s="86">
+      <c r="E47" s="5">
         <v>2833219</v>
       </c>
-      <c r="F47" s="86">
+      <c r="F47" s="5">
         <v>7750832</v>
       </c>
       <c r="G47" s="5">
         <v>100000</v>
       </c>
-      <c r="H47" s="68">
+      <c r="H47" s="67">
         <v>1.26564</v>
       </c>
-      <c r="I47" s="94">
+      <c r="I47" s="67">
         <v>1.46908</v>
       </c>
-      <c r="J47" s="68">
+      <c r="J47" s="67">
         <v>1.18047</v>
       </c>
-      <c r="K47" s="96">
+      <c r="K47" s="93">
         <v>2145314</v>
       </c>
-      <c r="L47" s="86">
+      <c r="L47" s="5">
         <v>3073475</v>
       </c>
-      <c r="M47" s="86">
+      <c r="M47" s="5">
         <v>3204854</v>
       </c>
-      <c r="N47" s="86">
+      <c r="N47" s="5">
         <v>778729</v>
       </c>
-      <c r="O47" s="86">
+      <c r="O47" s="5">
         <v>181234</v>
       </c>
-      <c r="P47" s="86">
+      <c r="P47" s="5">
         <v>100455</v>
       </c>
-      <c r="Q47" s="86">
+      <c r="Q47" s="5">
         <v>1657819</v>
       </c>
-      <c r="R47" s="86">
+      <c r="R47" s="5">
         <v>101155</v>
       </c>
     </row>
@@ -3816,58 +3806,300 @@
         <v>11143035</v>
       </c>
     </row>
-    <row r="49" s="66" customFormat="1" spans="1:18">
-      <c r="A49" s="80">
+    <row r="49" s="2" customFormat="1" spans="1:18">
+      <c r="A49" s="79">
         <v>43049</v>
       </c>
       <c r="B49" s="5">
-        <f>K49+L49+M49+N49+O49+P49+Q49+R49</f>
+        <f t="shared" si="7"/>
         <v>11143035</v>
       </c>
-      <c r="C49" s="81"/>
-      <c r="D49" s="86">
+      <c r="C49" s="80"/>
+      <c r="D49" s="5">
         <v>558984</v>
       </c>
-      <c r="E49" s="86">
+      <c r="E49" s="5">
         <v>2833219</v>
       </c>
-      <c r="F49" s="86">
+      <c r="F49" s="5">
         <v>7750832</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="68">
+      <c r="H49" s="67">
         <v>1.26564</v>
       </c>
-      <c r="I49" s="94">
+      <c r="I49" s="67">
         <v>1.46908</v>
       </c>
-      <c r="J49" s="68">
+      <c r="J49" s="67">
         <v>1.18047</v>
       </c>
-      <c r="K49" s="86">
+      <c r="K49" s="5">
         <v>2145314</v>
       </c>
-      <c r="L49" s="97">
+      <c r="L49" s="91">
         <v>2973475</v>
       </c>
-      <c r="M49" s="86">
+      <c r="M49" s="5">
         <v>3204854</v>
       </c>
-      <c r="N49" s="86">
+      <c r="N49" s="5">
         <v>778729</v>
       </c>
-      <c r="O49" s="86">
+      <c r="O49" s="5">
         <v>181234</v>
       </c>
-      <c r="P49" s="86">
+      <c r="P49" s="5">
         <v>100455</v>
       </c>
-      <c r="Q49" s="86">
+      <c r="Q49" s="5">
         <v>1657819</v>
       </c>
-      <c r="R49" s="86">
+      <c r="R49" s="5">
+        <v>101155</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:18">
+      <c r="A50" s="79">
+        <v>43053</v>
+      </c>
+      <c r="B50" s="5">
+        <f t="shared" si="7"/>
+        <v>11328288</v>
+      </c>
+      <c r="C50" s="80">
+        <f>(B50/B49-1)*100</f>
+        <v>1.66250038701306</v>
+      </c>
+      <c r="D50" s="5">
+        <f>D45*H50</f>
+        <v>568275.649663236</v>
+      </c>
+      <c r="E50" s="5">
+        <f>B50-D50-F50</f>
+        <v>2918953.10324164</v>
+      </c>
+      <c r="F50" s="5">
+        <f>F45*J50</f>
+        <v>7841059.24709512</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="67">
+        <f>B50*H49/B49</f>
+        <v>1.28668126989819</v>
+      </c>
+      <c r="I50" s="67">
+        <f>E50/E45</f>
+        <v>1.51353157505824</v>
+      </c>
+      <c r="J50" s="67">
+        <f>(C50*0.7/100+1)*J49</f>
+        <v>1.194207722823</v>
+      </c>
+      <c r="K50" s="78">
+        <v>2154962</v>
+      </c>
+      <c r="L50" s="5">
+        <v>3054052</v>
+      </c>
+      <c r="M50" s="5">
+        <v>2899794</v>
+      </c>
+      <c r="N50" s="5">
+        <v>785797</v>
+      </c>
+      <c r="O50" s="5">
+        <v>181234</v>
+      </c>
+      <c r="P50" s="5">
+        <v>100455</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>2050839</v>
+      </c>
+      <c r="R50" s="5">
+        <v>101155</v>
+      </c>
+    </row>
+    <row r="51" s="65" customFormat="1" spans="1:14">
+      <c r="A51" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="82">
+        <v>220000</v>
+      </c>
+      <c r="D51" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="67">
+        <v>1.19353</v>
+      </c>
+      <c r="F51" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="83">
+        <f>C51/E51</f>
+        <v>184327.163959012</v>
+      </c>
+      <c r="H51" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="75">
+        <f>G51+F45</f>
+        <v>6750236.17395901</v>
+      </c>
+      <c r="J51" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="73">
+        <f>C51+F50</f>
+        <v>8061059.24709512</v>
+      </c>
+      <c r="L51" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+    </row>
+    <row r="52" s="64" customFormat="1" ht="27" customHeight="1" spans="1:14">
+      <c r="A52" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="69"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="69">
+        <v>441660</v>
+      </c>
+      <c r="E52" s="27">
+        <v>1928571</v>
+      </c>
+      <c r="F52" s="77">
+        <v>6750236.17</v>
+      </c>
+      <c r="G52" s="75"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="90"/>
+      <c r="N52" s="90"/>
+    </row>
+    <row r="53" customFormat="1" ht="26.5" customHeight="1" spans="1:18">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="O53" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>34</v>
+      </c>
+      <c r="R53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="1:18">
+      <c r="A54" s="79">
+        <v>43053</v>
+      </c>
+      <c r="B54" s="5">
+        <f>K54+L54+M54+N54+O54+P54+Q54+R54</f>
+        <v>11548288</v>
+      </c>
+      <c r="C54" s="80"/>
+      <c r="D54" s="5">
+        <v>568276</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2918953</v>
+      </c>
+      <c r="F54" s="5">
+        <v>8061059</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="67">
+        <v>1.28668</v>
+      </c>
+      <c r="I54" s="67">
+        <v>1.51353</v>
+      </c>
+      <c r="J54" s="67">
+        <v>1.19421</v>
+      </c>
+      <c r="K54" s="78">
+        <v>2154962</v>
+      </c>
+      <c r="L54" s="5">
+        <v>3054052</v>
+      </c>
+      <c r="M54" s="5">
+        <v>2899794</v>
+      </c>
+      <c r="N54" s="5">
+        <v>785797</v>
+      </c>
+      <c r="O54" s="5">
+        <v>181234</v>
+      </c>
+      <c r="P54" s="5">
+        <v>100455</v>
+      </c>
+      <c r="Q54" s="91">
+        <v>2270839</v>
+      </c>
+      <c r="R54" s="5">
         <v>101155</v>
       </c>
     </row>
@@ -3880,10 +4112,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3898,24 +4130,24 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="53">
         <v>42958</v>
@@ -3932,7 +4164,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="53">
         <v>43027</v>
@@ -3964,7 +4196,7 @@
         <v>470769.897089701</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
@@ -4015,7 +4247,7 @@
         <v>274742.886448765</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:5">
@@ -4046,31 +4278,40 @@
         <v>1.18047</v>
       </c>
       <c r="E9" s="55">
-        <f>C9/D9</f>
+        <f t="shared" si="0"/>
         <v>338848.085931875</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:5">
-      <c r="A10" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="41"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="53">
+        <v>43053</v>
+      </c>
       <c r="C10" s="54">
-        <f>SUM(C2:C9)</f>
-        <v>2650000</v>
-      </c>
-      <c r="D10" s="51"/>
+        <v>220000</v>
+      </c>
+      <c r="D10" s="51">
+        <v>1.19421</v>
+      </c>
       <c r="E10" s="55">
-        <f>SUM(E2:E9)</f>
-        <v>2496834.54374861</v>
+        <f>C10/D10</f>
+        <v>184222.205474749</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:5">
-      <c r="A11" s="41"/>
+      <c r="A11" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="B11" s="41"/>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54">
+        <f>SUM(C2:C10)</f>
+        <v>2870000</v>
+      </c>
       <c r="D11" s="51"/>
-      <c r="E11" s="55"/>
+      <c r="E11" s="55">
+        <f>SUM(E2:E10)</f>
+        <v>2681056.74922336</v>
+      </c>
     </row>
     <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="41"/>
@@ -4080,100 +4321,89 @@
       <c r="E12" s="55"/>
     </row>
     <row r="13" ht="14.25" spans="1:5">
-      <c r="A13" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="53">
-        <v>42958</v>
-      </c>
-      <c r="C13" s="54">
-        <v>1000000</v>
-      </c>
-      <c r="D13" s="51">
-        <v>1</v>
-      </c>
-      <c r="E13" s="55">
-        <v>1000000</v>
-      </c>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" ht="14.25" spans="1:5">
       <c r="A14" s="41"/>
-      <c r="B14" s="53">
+      <c r="B14" s="41"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="55"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:5">
+      <c r="A15" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="53">
+        <v>42958</v>
+      </c>
+      <c r="C15" s="54">
+        <v>1000000</v>
+      </c>
+      <c r="D15" s="51">
+        <v>1</v>
+      </c>
+      <c r="E15" s="55">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:5">
+      <c r="A16" s="41"/>
+      <c r="B16" s="53">
         <v>43032</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C16" s="54">
         <v>1600000</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D16" s="51">
         <v>1.06209</v>
       </c>
-      <c r="E14" s="55">
-        <f>C14/D14</f>
+      <c r="E16" s="55">
+        <f>C16/D16</f>
         <v>1506463.67068704</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:5">
-      <c r="A15" s="41"/>
-      <c r="B15" s="53">
-        <v>43034</v>
-      </c>
-      <c r="C15" s="54">
-        <v>432458</v>
-      </c>
-      <c r="D15" s="51">
-        <v>1.09193</v>
-      </c>
-      <c r="E15" s="55">
-        <f>C15/D15</f>
-        <v>396049.197292867</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:5">
-      <c r="A16" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="54">
-        <f>SUM(C13:C15)</f>
-        <v>3032458</v>
-      </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="55">
-        <f>SUM(E13:E15)</f>
-        <v>2902512.86797991</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="55"/>
+      <c r="B17" s="53">
+        <v>43034</v>
+      </c>
+      <c r="C17" s="54">
+        <v>432458</v>
+      </c>
+      <c r="D17" s="51">
+        <v>1.09193</v>
+      </c>
+      <c r="E17" s="55">
+        <f>C17/D17</f>
+        <v>396049.197292867</v>
+      </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
-      <c r="A18" s="41"/>
+      <c r="A18" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="B18" s="41"/>
-      <c r="C18" s="54"/>
+      <c r="C18" s="54">
+        <f>SUM(C15:C17)</f>
+        <v>3032458</v>
+      </c>
       <c r="D18" s="51"/>
-      <c r="E18" s="55"/>
+      <c r="E18" s="55">
+        <f>SUM(E15:E17)</f>
+        <v>2902512.86797991</v>
+      </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
-      <c r="A19" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="53">
-        <v>43034</v>
-      </c>
-      <c r="C19" s="54">
-        <v>315777</v>
-      </c>
-      <c r="D19" s="51">
-        <v>1.09193</v>
-      </c>
-      <c r="E19" s="55">
-        <f>C19/D19</f>
-        <v>289191.614847106</v>
-      </c>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="41"/>
@@ -4183,134 +4413,159 @@
       <c r="E20" s="55"/>
     </row>
     <row r="21" ht="14.25" spans="1:5">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="55"/>
+      <c r="A21" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="53">
+        <v>43034</v>
+      </c>
+      <c r="C21" s="54">
+        <v>315777</v>
+      </c>
+      <c r="D21" s="51">
+        <v>1.09193</v>
+      </c>
+      <c r="E21" s="55">
+        <f>C21/D21</f>
+        <v>289191.614847106</v>
+      </c>
     </row>
     <row r="22" ht="14.25" spans="1:5">
-      <c r="A22" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="53">
-        <v>42958</v>
-      </c>
-      <c r="C22" s="56">
-        <v>405123</v>
-      </c>
-      <c r="D22" s="51">
-        <v>1</v>
-      </c>
-      <c r="E22" s="57">
-        <v>405123</v>
-      </c>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" ht="14.25" spans="1:5">
       <c r="A23" s="41"/>
-      <c r="B23" s="53">
+      <c r="B23" s="41"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="55"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:5">
+      <c r="A24" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="53">
+        <v>42958</v>
+      </c>
+      <c r="C24" s="56">
+        <v>405123</v>
+      </c>
+      <c r="D24" s="51">
+        <v>1</v>
+      </c>
+      <c r="E24" s="57">
+        <v>405123</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:5">
+      <c r="A25" s="41"/>
+      <c r="B25" s="53">
         <v>43038</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C25" s="58">
         <v>200000</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D25" s="51">
         <v>1.09193</v>
       </c>
-      <c r="E23" s="59">
-        <f>C23/D23</f>
+      <c r="E25" s="59">
+        <f>C25/D25</f>
         <v>183161.924299177</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:5">
-      <c r="A24" s="41"/>
-      <c r="B24" s="53">
-        <v>43044</v>
-      </c>
-      <c r="C24" s="58">
-        <v>100000</v>
-      </c>
-      <c r="D24" s="51">
-        <v>1.12137</v>
-      </c>
-      <c r="E24" s="59">
-        <f>C24/D24</f>
-        <v>89176.63215531</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:10">
-      <c r="A25" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="58">
-        <f>SUM(C22:C24)</f>
-        <v>705123</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="59">
-        <f>SUM(E22:E24)</f>
-        <v>677461.556454487</v>
-      </c>
-      <c r="J25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:5">
       <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="59"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:5">
+      <c r="B26" s="53">
+        <v>43044</v>
+      </c>
+      <c r="C26" s="58">
+        <v>100000</v>
+      </c>
+      <c r="D26" s="51">
+        <v>1.12137</v>
+      </c>
+      <c r="E26" s="59">
+        <f>C26/D26</f>
+        <v>89176.63215531</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:10">
       <c r="A27" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="58">
+        <f>SUM(C24:C26)</f>
+        <v>705123</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="59">
+        <f>SUM(E24:E26)</f>
+        <v>677461.556454487</v>
+      </c>
+      <c r="J27" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="53">
+    </row>
+    <row r="28" ht="14.25" spans="1:5">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="59"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:5">
+      <c r="A29" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="53">
         <v>42958</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C29" s="54">
         <v>200000</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D29" s="51">
         <v>1</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E29" s="55">
         <v>200000</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:5">
-      <c r="A31" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="41" t="s">
+    <row r="33" ht="14.25" spans="1:5">
+      <c r="A33" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="61" t="s">
+      <c r="B33" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="60" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" ht="14.25" spans="1:5">
-      <c r="A32" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="53">
+      <c r="E33" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:5">
+      <c r="A34" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="53">
         <v>42958</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C34" s="56">
         <v>441660</v>
       </c>
-      <c r="D32" s="62">
+      <c r="D34" s="62">
         <v>1</v>
       </c>
-      <c r="E32" s="56">
+      <c r="E34" s="56">
         <v>441660</v>
       </c>
     </row>
@@ -4325,7 +4580,7 @@
   <sheetPr/>
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -4343,36 +4598,36 @@
   <sheetData>
     <row r="2" ht="18.75" spans="1:2">
       <c r="A2" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="15"/>
     </row>
     <row r="4" ht="18.75" spans="1:7">
       <c r="A4" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="19">
         <v>42951</v>
@@ -4395,7 +4650,7 @@
     </row>
     <row r="6" ht="18.75" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="19">
         <v>43044</v>
@@ -4412,7 +4667,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -4421,7 +4676,7 @@
     </row>
     <row r="7" ht="18.75" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19">
         <v>42951</v>
@@ -4449,7 +4704,7 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="27">
         <f>SUM(E5:E7)</f>
@@ -4484,19 +4739,19 @@
     </row>
     <row r="11" ht="18.75" spans="1:9">
       <c r="A11" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -4505,7 +4760,7 @@
     </row>
     <row r="12" ht="18.75" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="19">
         <v>42958</v>
@@ -4524,7 +4779,7 @@
     </row>
     <row r="13" ht="18.75" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="19">
         <v>42958</v>
@@ -4543,7 +4798,7 @@
     </row>
     <row r="14" ht="18.75" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="19">
         <v>42958</v>
@@ -4562,7 +4817,7 @@
     </row>
     <row r="15" ht="18.75" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="19">
         <v>42958</v>
@@ -4599,26 +4854,26 @@
     </row>
     <row r="18" ht="18.75" spans="1:7">
       <c r="A18" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" ht="18.75" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2">
         <v>20170811</v>
@@ -4639,7 +4894,7 @@
     <row r="20" ht="18.75" spans="1:8">
       <c r="A20" s="34"/>
       <c r="B20" s="35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="36">
         <f>SUM(C5:C19)</f>
@@ -4681,26 +4936,26 @@
     </row>
     <row r="24" ht="18.75" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" ht="18.75" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" s="44">
         <v>910028</v>
@@ -4719,7 +4974,7 @@
     </row>
     <row r="26" ht="18.75" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" s="32">
         <v>1100000</v>
@@ -4777,28 +5032,28 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -4855,19 +5110,19 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -4877,7 +5132,7 @@
         <v>20170811</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="8">
         <v>301275</v>
@@ -4910,7 +5165,7 @@
         <v>20170811</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" s="7">
         <v>698725</v>
@@ -4956,13 +5211,13 @@
     </row>
     <row r="10" ht="18.75" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
